--- a/app/test/TestCase.xlsx
+++ b/app/test/TestCase.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
   <si>
     <t>Назначение</t>
   </si>
@@ -346,6 +346,21 @@
   </si>
   <si>
     <t>Тестирование уведомления об отсутствии интернент-соединения</t>
+  </si>
+  <si>
+    <t>TC-05</t>
+  </si>
+  <si>
+    <t>Оценка на сколько приятным и понятным был интерфейс пользователя для пользователя</t>
+  </si>
+  <si>
+    <t>1) Использовать приложение</t>
+  </si>
+  <si>
+    <t>2) Описать какие действия были понятны, а какие нет</t>
+  </si>
+  <si>
+    <t>3) Описать насколько приятный внешний вид пользовательского интерфейса</t>
   </si>
 </sst>
 </file>
@@ -412,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -429,51 +444,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,31 +773,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B13"/>
+      <selection activeCell="A26" sqref="A26:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="74.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
     <col min="4" max="4" width="61.7109375" customWidth="1"/>
     <col min="5" max="5" width="51.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -790,22 +808,22 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -831,161 +849,217 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="9" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="9" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="9" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="15"/>
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="D20" s="15" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="D20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="D21" s="15" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="D21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="23" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="26">
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="E18:E21"/>
@@ -995,18 +1069,6 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1031,14 +1093,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1049,34 +1111,34 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="4"/>
@@ -1085,8 +1147,8 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1111,550 +1173,518 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="15" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="19" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="19" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D22" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="D23" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="D24" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="D25" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="D26" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="D27" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="D28" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="D29" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="15" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="12" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="15" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="15" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="15"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="15" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="15" t="s">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="12" t="s">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="15" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="15" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="12" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="15" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="15" t="s">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="19" t="s">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="14" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="19" t="s">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="52" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="19" t="s">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D53" s="13"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="14" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D54" s="13"/>
+      <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="19" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="13"/>
+      <c r="D55" s="20"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="14" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="13"/>
+      <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="19" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="13"/>
+      <c r="D59" s="20"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="19" t="s">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="13"/>
+      <c r="D60" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="14" t="s">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="13"/>
+      <c r="D63" s="20"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="19" t="s">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="13"/>
+      <c r="D64" s="20"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="19" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="13"/>
+      <c r="D65" s="20"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="20" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="14" t="s">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="13"/>
+      <c r="D68" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="F37:F45"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D37:D45"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A21:A29"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="E21:E29"/>
@@ -1665,6 +1695,38 @@
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="F37:F45"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A62:A65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/test/TestCase.xlsx
+++ b/app/test/TestCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC-0" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Проверка присутствия всех элементов графического интерфейса на главном  экране приложения</t>
   </si>
   <si>
-    <t>На экране смартфона отображается окно, содержащее в себе следующие компаненты:</t>
-  </si>
-  <si>
     <t>1) Иконка приложения</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>4) Кнопка с иконкой в виде знака "+"</t>
   </si>
   <si>
-    <t>Проверка того, что пользователь смог освоить пользовательский интрефейс и он корректен.</t>
-  </si>
-  <si>
     <t>TC-02</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>Возврат на главный экран приложения</t>
   </si>
   <si>
-    <t>1) Уведиться, что приложение отображает экран поиска фильма</t>
-  </si>
-  <si>
     <t>2) Нажать кнопку "назад" на смартфоне</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>Текст для поиска:</t>
   </si>
   <si>
-    <t>Проверка удавлетворения приложения функциональным требованиям</t>
-  </si>
-  <si>
     <t xml:space="preserve">Поиск фильма по заведомо некорректному названию </t>
   </si>
   <si>
@@ -153,9 +141,6 @@
     <t>2) Перейти на экран поиска фильма</t>
   </si>
   <si>
-    <t>1) Убедиться, что интернет-соединение подключено и активно</t>
-  </si>
-  <si>
     <t>4) Нажать на кнопку с изображением лупы</t>
   </si>
   <si>
@@ -234,9 +219,6 @@
     <t>2) Долго удерживать один из элемента списка</t>
   </si>
   <si>
-    <t>3) На появившемся диалоговом окне с заговком "Add movie" выбрать "ALREADY WATCHED"</t>
-  </si>
-  <si>
     <t>4) Дождаться закрытия диалогового окна</t>
   </si>
   <si>
@@ -264,9 +246,6 @@
     <t>8) Нажать кнопку "назад" смартфона</t>
   </si>
   <si>
-    <t>6) На появившемся диалоговом окне с заговком "Add movie" выбрать "WANT TO WATCH"</t>
-  </si>
-  <si>
     <t>На главном окне приложения на вкладке "WANT TO WATCH" отображается добавленный фильм</t>
   </si>
   <si>
@@ -294,9 +273,6 @@
     <t>1) Проделать TC-16</t>
   </si>
   <si>
-    <t xml:space="preserve">Выставление оценки фильму в списоке уже просмотренных </t>
-  </si>
-  <si>
     <t>Выставление оценки фильму в списке планируемых к просмотру</t>
   </si>
   <si>
@@ -330,9 +306,6 @@
     <t>Тестирование атр. качества(удобство использования) [TC-0]</t>
   </si>
   <si>
-    <t>Тестирование атр. качества(функицональность) [TC-1]</t>
-  </si>
-  <si>
     <t>Проверка атрибута качества "Точность"</t>
   </si>
   <si>
@@ -345,9 +318,6 @@
     <t>Переход на экран для поиска фильма</t>
   </si>
   <si>
-    <t>Тестирование уведомления об отсутствии интернент-соединения</t>
-  </si>
-  <si>
     <t>TC-05</t>
   </si>
   <si>
@@ -361,6 +331,36 @@
   </si>
   <si>
     <t>3) Описать насколько приятный внешний вид пользовательского интерфейса</t>
+  </si>
+  <si>
+    <t>Проверка того, что пользователь смог освоить пользовательский интерфейс и он корректен.</t>
+  </si>
+  <si>
+    <t>На экране смартфона отображается окно, содержащее в себе следующие компоненты:</t>
+  </si>
+  <si>
+    <t>Тестирование уведомления об отсутствии интернет-соединения</t>
+  </si>
+  <si>
+    <t>1) Убедиться, что приложение отображает экран поиска фильма</t>
+  </si>
+  <si>
+    <t>Тестирование атр. качества(функциональность) [TC-1]</t>
+  </si>
+  <si>
+    <t>Проверка удовлетворения приложения функциональным требованиям</t>
+  </si>
+  <si>
+    <t>1) Убедиться, что Интернет-соединение подключено и активно</t>
+  </si>
+  <si>
+    <t>3) На появившемся диалоговом окне с заголовком "Add movie" выбрать "ALREADY WATCHED"</t>
+  </si>
+  <si>
+    <t>6) На появившемся диалоговом окне с заголовком "Add movie" выбрать "WANT TO WATCH"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выставление оценки фильму в списке уже просмотренных </t>
   </si>
 </sst>
 </file>
@@ -470,10 +470,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,9 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,25 +790,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="18"/>
+      <c r="A1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -816,13 +816,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
@@ -849,217 +849,200 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="15"/>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="18" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="D20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="D21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="23" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="D20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="D21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="23" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="D23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="22"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>108</v>
+      <c r="A26" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="22"/>
+        <v>99</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="22"/>
+        <v>101</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="E18:E21"/>
@@ -1069,6 +1052,23 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D25:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1079,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1093,53 +1093,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1147,9 +1147,9 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1173,518 +1173,545 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="D18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="8" t="s">
+      <c r="D19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="B21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="D25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="D27" t="s">
+      <c r="D31" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="D28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="D29" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="D34" s="21"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="20" t="s">
+      <c r="B47" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="52" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="8" t="s">
+      <c r="B52" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="10" t="s">
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="D55" s="21"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="D57" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C62" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="52" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="20"/>
-    </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="20"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="17" t="s">
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="20" t="s">
+      <c r="C67" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="20"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="12" t="s">
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="20"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="20"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="F37:F45"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="A37:A45"/>
     <mergeCell ref="A21:A29"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="E21:E29"/>
@@ -1700,33 +1727,6 @@
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D37:D45"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="F37:F45"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A62:A65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
